--- a/MapConfig/strategy/Excel/Terrain6.xlsx
+++ b/MapConfig/strategy/Excel/Terrain6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="52">
   <si>
     <t>Terraiin</t>
   </si>
@@ -189,14 +189,60 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -209,15 +255,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,24 +271,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,14 +290,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,6 +317,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -307,33 +332,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,187 +367,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,15 +576,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -600,11 +591,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,48 +651,25 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,10 +679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,133 +691,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1167,10 +1167,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1487,8 +1487,8 @@
       <c r="L5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>50</v>
+      <c r="M5" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>50</v>
@@ -1555,8 +1555,8 @@
       <c r="L6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>50</v>
+      <c r="M6" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>50</v>
@@ -1753,20 +1753,20 @@
       <c r="J9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>51</v>
+      <c r="K9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>50</v>
@@ -1824,17 +1824,17 @@
       <c r="K10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>50</v>
+      <c r="L10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>50</v>
@@ -2096,17 +2096,17 @@
       <c r="K14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>51</v>
+      <c r="L14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>50</v>
@@ -2161,20 +2161,20 @@
       <c r="J15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>50</v>
+      <c r="K15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>50</v>
@@ -2331,6 +2331,74 @@
         <v>50</v>
       </c>
       <c r="V17" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" ht="50" customHeight="1" spans="1:22">
+      <c r="A18" s="2">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2">
+        <v>20</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V18" s="5" t="s">
         <v>50</v>
       </c>
     </row>
